--- a/mosip_master/xlsx/user_detail.xlsx
+++ b/mosip_master/xlsx/user_detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\Elhadj-unir-masterdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E9CC6C3-3A73-4C84-A544-131A0C09F6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A5820-A146-43BB-BE2F-1A582BD8C677}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="-90" windowWidth="19380" windowHeight="10260"/>
+    <workbookView xWindow="9516" yWindow="-96" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>lang_code</t>
   </si>
@@ -51,83 +51,11 @@
   <si>
     <t>is_active</t>
   </si>
-  <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>Mouctar</t>
-  </si>
-  <si>
-    <t>imouctar.diallo@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>ACT</t>
-  </si>
-  <si>
-    <t>PWD</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Sory</t>
-  </si>
-  <si>
-    <t>isory.conde@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>Ferdiannd</t>
-  </si>
-  <si>
-    <t>ferdinand.goumou@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>Hadja</t>
-  </si>
-  <si>
-    <t>Hadja.cherif@wuriguinee.co</t>
-  </si>
-  <si>
-    <t>Elhadj</t>
-  </si>
-  <si>
-    <t>esaidou.keita@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>dt@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>Teli</t>
-  </si>
-  <si>
-    <t>iteli.bah@wuriguinee.com</t>
-  </si>
-  <si>
-    <t>lisbon</t>
-  </si>
-  <si>
-    <t>lisbon@mosip.io</t>
-  </si>
-  <si>
-    <t>madrid</t>
-  </si>
-  <si>
-    <t>madrid@mosip.io</t>
-  </si>
-  <si>
-    <t>berlin</t>
-  </si>
-  <si>
-    <t>berlin@mosip.io</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,48 +537,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,7 +594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -961,16 +889,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J16" sqref="A2:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,296 +933,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>910001</v>
-      </c>
-      <c r="C2">
-        <v>9317596808</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>620223365</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>910002</v>
-      </c>
-      <c r="C3">
-        <v>9317596854</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>620223365</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>910003</v>
-      </c>
-      <c r="C4">
-        <v>9317596855</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>620223365</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>910004</v>
-      </c>
-      <c r="C5">
-        <v>9317596868</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>620223365</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>910005</v>
-      </c>
-      <c r="C6">
-        <v>9317596869</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>620223365</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>910006</v>
-      </c>
-      <c r="C7">
-        <v>9317596869</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>620223365</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>910007</v>
-      </c>
-      <c r="C8">
-        <v>9317596869</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8">
-        <v>620223365</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>9317596868</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9">
-        <v>9876543213</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>9317596869</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>9876543214</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>9317596869</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11">
-        <v>9876543214</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mosip_master/xlsx/user_detail.xlsx
+++ b/mosip_master/xlsx/user_detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\GUINEA_Pilot\GUINEA_Pilot_Mosip-Data_WuriGuinea-1.2.0.1-B1\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121A5820-A146-43BB-BE2F-1A582BD8C677}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3BB478-D5A5-45D3-94B3-F25E002A0EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9516" yWindow="-96" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="48">
   <si>
     <t>lang_code</t>
   </si>
@@ -28,18 +28,9 @@
     <t>id</t>
   </si>
   <si>
-    <t>uin</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
     <t>status_code</t>
   </si>
   <si>
@@ -50,6 +41,129 @@
   </si>
   <si>
     <t>is_active</t>
+  </si>
+  <si>
+    <t>last_login_dtimes</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>1103 (Rediet K)</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
+  </si>
+  <si>
+    <t>imouctar</t>
+  </si>
+  <si>
+    <t>imouctar (Ibrahima Mouctar DIALLO)</t>
+  </si>
+  <si>
+    <t>teli</t>
+  </si>
+  <si>
+    <t>teli (Ibrahima Teli Bah)</t>
+  </si>
+  <si>
+    <t>ferdinand</t>
+  </si>
+  <si>
+    <t>ferdinand (Ferdinand Goumou)</t>
+  </si>
+  <si>
+    <t>ekeita</t>
+  </si>
+  <si>
+    <t>ekeita (Elhadj KEITA)</t>
+  </si>
+  <si>
+    <t>condeis</t>
+  </si>
+  <si>
+    <t>condeis (Ibrahima Sory CONDE)</t>
+  </si>
+  <si>
+    <t>avanish5</t>
+  </si>
+  <si>
+    <t>avanish5 (Avanish Duggireddy)</t>
+  </si>
+  <si>
+    <t>avanish</t>
+  </si>
+  <si>
+    <t>avanish (avanish avanish)</t>
+  </si>
+  <si>
+    <t>chithara</t>
+  </si>
+  <si>
+    <t>chithara (Chithara Gowda)</t>
+  </si>
+  <si>
+    <t>chithara27</t>
+  </si>
+  <si>
+    <t>chithara27 (Chithara M S)</t>
+  </si>
+  <si>
+    <t>110003 (Test 3)</t>
+  </si>
+  <si>
+    <t>110022 (Test 2)</t>
+  </si>
+  <si>
+    <t>110027 (Tester 1)</t>
+  </si>
+  <si>
+    <t>110036 (Test Test)</t>
+  </si>
+  <si>
+    <t>avanish123</t>
+  </si>
+  <si>
+    <t>avanish123 (Avanish Duggireddy)</t>
+  </si>
+  <si>
+    <t>100011 (test 11)</t>
+  </si>
+  <si>
+    <t>ganesh</t>
+  </si>
+  <si>
+    <t>ganesh (Ganesh Taru)</t>
+  </si>
+  <si>
+    <t>110010 (Test Device)</t>
+  </si>
+  <si>
+    <t>nambi</t>
+  </si>
+  <si>
+    <t>nambi (Nambi Rajan)</t>
   </si>
 </sst>
 </file>
@@ -533,8 +647,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,47 +1005,895 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="A2:J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45079.634578506942</v>
+      </c>
+      <c r="K2">
+        <v>1103</v>
+      </c>
+      <c r="L2" s="1">
+        <v>45086.18918306713</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45093.477351319445</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45093.477475659725</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45093.544087002316</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1">
+        <v>45093.544166990738</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1">
+        <v>45096.531673206016</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="1">
+        <v>45096.531829224536</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45096.531616192129</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45096.532088483793</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1">
+        <v>45096.533315347224</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1">
+        <v>45096.533471909723</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1">
+        <v>45134.437937650466</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1">
+        <v>45135.490660173615</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45134.456456678243</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45135.491182164355</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1">
+        <v>45125.258274629632</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1">
+        <v>45154.504140868055</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1103</v>
+      </c>
+      <c r="J11" s="1">
+        <v>45082.219611643515</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45132.280268113427</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>110003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45163.406603229167</v>
+      </c>
+      <c r="K12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="1">
+        <v>45163.406656701387</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>110022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45155.185735231484</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="1">
+        <v>45163.475461886577</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>45163.475461886577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>110027</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45154.548777372685</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45163.475836319441</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>45163.475836319441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>110036</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45154.510034212966</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45163.47588766204</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>45163.47588766204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>10000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1">
+        <v>45134.437789016207</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45134.43817040509</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>100011</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>10000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45163.477689791667</v>
+      </c>
+      <c r="K17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="1">
+        <v>45163.477808124997</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="1">
+        <v>45169.44125314815</v>
+      </c>
+      <c r="K18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="1">
+        <v>45169.441304201391</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>110010</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45176.257005520834</v>
+      </c>
+      <c r="K19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="1">
+        <v>45176.265883969907</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>10000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="1">
+        <v>45191.306733171295</v>
+      </c>
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45191.306813206022</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
